--- a/Project-Planning/Grantt Chart - AstroPi.xlsx
+++ b/Project-Planning/Grantt Chart - AstroPi.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Project Planner</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Development Plan</t>
   </si>
   <si>
-    <t>Proto</t>
-  </si>
-  <si>
     <t>Testing Proto</t>
   </si>
   <si>
@@ -170,13 +167,46 @@
   </si>
   <si>
     <t>To Be Entered</t>
+  </si>
+  <si>
+    <t>First Prototype</t>
+  </si>
+  <si>
+    <t>Final Proto</t>
+  </si>
+  <si>
+    <t>Project report</t>
+  </si>
+  <si>
+    <t>Prepare for Data Analysis</t>
+  </si>
+  <si>
+    <t>Test Data Analysis</t>
+  </si>
+  <si>
+    <t>Interpret Data</t>
+  </si>
+  <si>
+    <t>Create Information Diagrams</t>
+  </si>
+  <si>
+    <t>Final report</t>
+  </si>
+  <si>
+    <t>Experiment with Flash</t>
+  </si>
+  <si>
+    <t>Run a final simulation</t>
+  </si>
+  <si>
+    <t>Interactive Review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -261,8 +291,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +345,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor theme="7"/>
       </patternFill>
     </fill>
   </fills>
@@ -379,7 +422,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,6 +481,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -647,7 +699,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="7"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10" val="26"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -932,40 +984,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BQ34"/>
+  <dimension ref="B2:BQ38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="7.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.25" style="7" customWidth="1"/>
     <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
-    <col min="9" max="28" width="2.75" style="1"/>
+    <col min="9" max="13" width="2.75" style="1"/>
+    <col min="14" max="14" width="3.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="28" width="2.75" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="I3" s="8" t="s">
         <v>13</v>
       </c>
@@ -974,7 +1028,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="9">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="O3" s="8"/>
       <c r="Q3" s="10"/>
@@ -1003,12 +1057,12 @@
       </c>
     </row>
     <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
@@ -1284,19 +1338,19 @@
         <v>16</v>
       </c>
       <c r="C10" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="16">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E10" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G10" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L10" s="19"/>
     </row>
@@ -1305,38 +1359,38 @@
         <v>17</v>
       </c>
       <c r="C11" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="16">
         <v>5</v>
       </c>
       <c r="F11" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O11" s="19"/>
-      <c r="T11" s="10"/>
+      <c r="T11" s="20"/>
     </row>
     <row r="12" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" s="16">
         <v>7</v>
       </c>
       <c r="D12" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G12" s="17">
         <v>1</v>
@@ -1344,16 +1398,16 @@
     </row>
     <row r="13" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="16">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D13" s="16">
         <v>1</v>
       </c>
       <c r="E13" s="16">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F13" s="16">
         <v>1</v>
@@ -1364,253 +1418,241 @@
     </row>
     <row r="14" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D14" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" s="16">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="16">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D15" s="16">
         <v>1</v>
       </c>
       <c r="E15" s="16">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F15" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
-        <v>22</v>
+      <c r="B16" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C16" s="16">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D16" s="16">
         <v>2</v>
       </c>
       <c r="E16" s="16">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F16" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="16">
+        <v>21</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="16">
+        <v>21</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="16">
+        <v>20</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
+      <c r="E18" s="16">
+        <v>20</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="16">
+        <v>20</v>
+      </c>
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="16">
+        <v>20</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="16">
+        <v>30</v>
+      </c>
+      <c r="D20" s="16">
+        <v>1</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="16">
+        <v>20</v>
+      </c>
+      <c r="D21" s="16">
+        <v>13</v>
+      </c>
+      <c r="E21" s="16">
+        <v>27</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="16">
+        <v>20</v>
+      </c>
+      <c r="D22" s="16">
+        <v>11</v>
+      </c>
+      <c r="E22" s="16">
         <v>22</v>
       </c>
-      <c r="C17" s="16">
-        <v>0</v>
-      </c>
-      <c r="D17" s="16">
+      <c r="F22" s="16">
+        <v>4</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="16">
+        <v>30</v>
+      </c>
+      <c r="D23" s="16">
         <v>2</v>
       </c>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
-      <c r="G17" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="16">
-        <v>0</v>
-      </c>
-      <c r="D18" s="16">
-        <v>5</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
-      <c r="G18" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="16">
-        <v>0</v>
-      </c>
-      <c r="D19" s="16">
-        <v>1</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="16">
-        <v>0</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="16">
+        <v>33</v>
+      </c>
+      <c r="D24" s="16">
+        <v>4</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="16">
+        <v>33</v>
+      </c>
+      <c r="D25" s="16">
         <v>3</v>
       </c>
-      <c r="E20" s="16">
-        <v>0</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0</v>
-      </c>
-      <c r="G20" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="16">
-        <v>0</v>
-      </c>
-      <c r="D21" s="16">
-        <v>6</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16">
-        <v>0</v>
-      </c>
-      <c r="G21" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="16">
-        <v>0</v>
-      </c>
-      <c r="D22" s="16">
-        <v>3</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0</v>
-      </c>
-      <c r="G22" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="16">
-        <v>0</v>
-      </c>
-      <c r="D23" s="16">
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="16">
+        <v>33</v>
+      </c>
+      <c r="D26" s="16">
         <v>4</v>
-      </c>
-      <c r="E23" s="16">
-        <v>0</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="16">
-        <v>0</v>
-      </c>
-      <c r="D24" s="16">
-        <v>5</v>
-      </c>
-      <c r="E24" s="16">
-        <v>0</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="16">
-        <v>0</v>
-      </c>
-      <c r="D25" s="16">
-        <v>2</v>
-      </c>
-      <c r="E25" s="16">
-        <v>0</v>
-      </c>
-      <c r="F25" s="16">
-        <v>0</v>
-      </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="16">
-        <v>0</v>
-      </c>
-      <c r="D26" s="16">
-        <v>6</v>
       </c>
       <c r="E26" s="16">
         <v>0</v>
@@ -1624,13 +1666,13 @@
     </row>
     <row r="27" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="16">
         <v>0</v>
       </c>
       <c r="D27" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27" s="16">
         <v>0</v>
@@ -1644,7 +1686,7 @@
     </row>
     <row r="28" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="16">
         <v>0</v>
@@ -1664,13 +1706,13 @@
     </row>
     <row r="29" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="16">
         <v>0</v>
       </c>
       <c r="D29" s="16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E29" s="16">
         <v>0</v>
@@ -1684,13 +1726,13 @@
     </row>
     <row r="30" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C30" s="16">
         <v>0</v>
       </c>
       <c r="D30" s="16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" s="16">
         <v>0</v>
@@ -1704,13 +1746,13 @@
     </row>
     <row r="31" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="16">
         <v>0</v>
       </c>
       <c r="D31" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E31" s="16">
         <v>0</v>
@@ -1724,7 +1766,7 @@
     </row>
     <row r="32" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="16">
         <v>0</v>
@@ -1744,7 +1786,7 @@
     </row>
     <row r="33" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33" s="16">
         <v>0</v>
@@ -1764,21 +1806,101 @@
     </row>
     <row r="34" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C34" s="16">
         <v>0</v>
       </c>
       <c r="D34" s="16">
+        <v>7</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0</v>
+      </c>
+      <c r="G34" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="16">
+        <v>0</v>
+      </c>
+      <c r="D35" s="16">
+        <v>4</v>
+      </c>
+      <c r="E35" s="16">
+        <v>0</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0</v>
+      </c>
+      <c r="G35" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="16">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16">
+        <v>5</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="16">
+        <v>0</v>
+      </c>
+      <c r="G36" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="16">
+        <v>0</v>
+      </c>
+      <c r="D37" s="16">
+        <v>8</v>
+      </c>
+      <c r="E37" s="16">
+        <v>0</v>
+      </c>
+      <c r="F37" s="16">
+        <v>0</v>
+      </c>
+      <c r="G37" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="16">
+        <v>0</v>
+      </c>
+      <c r="D38" s="16">
         <v>28</v>
       </c>
-      <c r="E34" s="16">
-        <v>0</v>
-      </c>
-      <c r="F34" s="16">
-        <v>0</v>
-      </c>
-      <c r="G34" s="17">
+      <c r="E38" s="16">
+        <v>0</v>
+      </c>
+      <c r="F38" s="16">
+        <v>0</v>
+      </c>
+      <c r="G38" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1786,7 +1908,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:BP10 I12:BP34 I11:S11 U11:BP11">
+  <conditionalFormatting sqref="I9:BP10 I12:BP38 I11:S11 U11:BP11">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -1812,7 +1934,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:BP35">
+  <conditionalFormatting sqref="B39:BP39">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
